--- a/Octave/iRT gsheets.xlsx
+++ b/Octave/iRT gsheets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo\Documents\GitHub\octave\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo\Documents\GitHub\rodrigocns_JoVE\Octave\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB963D7-059B-4844-B3F0-B3DD917F4995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49573525-B4B9-4E5B-B76B-01CBEFE9A277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="2640" windowWidth="14055" windowHeight="12555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -168,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="74">
   <si>
     <t>timestamp</t>
   </si>
@@ -243,9 +243,6 @@
   </si>
   <si>
     <t>poligonFill</t>
-  </si>
-  <si>
-    <t>13.092058078903449,-19.751618968223273</t>
   </si>
   <si>
     <t>1682705349098</t>
@@ -740,7 +737,7 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,19 +783,19 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" t="s">
         <v>71</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>72</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>73</v>
       </c>
-      <c r="Q1" t="s">
-        <v>74</v>
-      </c>
       <c r="R1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -852,7 +849,7 @@
         <v>0.68734109134490795</v>
       </c>
       <c r="R2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -870,28 +867,28 @@
         <v>24</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="N3">
         <v>-0.490257597533579</v>
@@ -906,7 +903,7 @@
         <v>0.68734109134490795</v>
       </c>
       <c r="R3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -921,31 +918,31 @@
         <v>14</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="N4">
         <v>0.29922234471855402</v>
@@ -960,7 +957,7 @@
         <v>0.92186792824394204</v>
       </c>
       <c r="R4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -969,37 +966,37 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="N5">
         <v>-0.490257597533579</v>
@@ -1014,7 +1011,7 @@
         <v>0.68734109134490795</v>
       </c>
       <c r="R5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -1023,37 +1020,37 @@
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="M6" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="N6">
         <v>-0.490257597533579</v>
@@ -1068,7 +1065,7 @@
         <v>0.68734109134490795</v>
       </c>
       <c r="R6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -1077,37 +1074,37 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="M7" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="N7">
         <v>0.29922234471855402</v>
@@ -1122,11 +1119,12 @@
         <v>0.92186792824394204</v>
       </c>
       <c r="R7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>